--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03A7AFAE5413BB07/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a7afae5413bb07/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6F89276-E9C7-4047-8131-2E2A024C2A11}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{357B73B7-7A9D-4985-B369-5DF35C54B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08F9DE47-F821-4E7A-8BA2-5F8B33504743}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Year 2025</t>
   </si>
@@ -99,52 +99,67 @@
     <t>Outstanding Balance</t>
   </si>
   <si>
-    <t>Lokesh</t>
-  </si>
-  <si>
-    <t>Sanjit</t>
-  </si>
-  <si>
-    <t>Ankit</t>
-  </si>
-  <si>
-    <t>Kamesh</t>
-  </si>
-  <si>
-    <t>Bharat</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
     <t>1st Jun</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajay </t>
-  </si>
-  <si>
-    <t>Massey</t>
-  </si>
-  <si>
-    <t>Pandey</t>
-  </si>
-  <si>
     <t>Sanjay Rawat</t>
   </si>
   <si>
     <t>4th Jun</t>
   </si>
   <si>
-    <t>Anirudh</t>
-  </si>
-  <si>
-    <t>Manish</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>Monthly Contribution</t>
+  </si>
+  <si>
+    <t>Lokesh Narayan</t>
+  </si>
+  <si>
+    <t>Sanjit Sharma</t>
+  </si>
+  <si>
+    <t>Ankit Dhawan</t>
+  </si>
+  <si>
+    <t>Kamesh Sharma</t>
+  </si>
+  <si>
+    <t>Bharat Pankholi</t>
+  </si>
+  <si>
+    <t>Rahul Thakur</t>
+  </si>
+  <si>
+    <t>Ajay Bhardwaj</t>
+  </si>
+  <si>
+    <t>Rahul Massey</t>
+  </si>
+  <si>
+    <t>Deepak Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anirudh </t>
+  </si>
+  <si>
+    <t>Manish Rawat</t>
+  </si>
+  <si>
+    <t>Nitesh Rathore</t>
+  </si>
+  <si>
+    <t>Rinku Rai</t>
+  </si>
+  <si>
+    <t>Dinesh Sundriyal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohit </t>
+  </si>
+  <si>
+    <t>Akash</t>
   </si>
 </sst>
 </file>
@@ -304,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -341,6 +356,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +421,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -733,16 +745,16 @@
   </sheetPr>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5546875" bestFit="1" customWidth="1"/>
@@ -751,7 +763,9 @@
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
@@ -760,7 +774,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -908,7 +922,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -922,17 +936,19 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5">
+        <v>26</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5">
         <f>SUM(F5:Q5)</f>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="S5" s="5">
         <f>R5-E5</f>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -945,7 +961,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -959,17 +975,19 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5">
+        <v>26</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5">
-        <f t="shared" ref="R6:R16" si="0">SUM(F6:Q6)</f>
-        <v>100</v>
+        <f t="shared" ref="R6:R21" si="0">SUM(F6:Q6)</f>
+        <v>126</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" ref="S6:S23" si="1">R6-E6</f>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -982,7 +1000,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1019,7 +1037,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1033,17 +1051,19 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5">
+        <v>26</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1056,9 +1076,11 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="18">
+        <v>45915</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1070,17 +1092,19 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="5">
+        <v>26</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1093,10 +1117,10 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1109,17 +1133,19 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5">
+        <v>26</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1132,7 +1158,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1146,17 +1172,19 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5">
+        <v>26</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1169,7 +1197,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1183,17 +1211,19 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5">
+        <v>26</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1206,7 +1236,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1243,10 +1273,10 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1282,7 +1312,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1301,7 +1331,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(F15:Q15)</f>
         <v>100</v>
       </c>
       <c r="S15" s="5">
@@ -1319,7 +1349,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1333,17 +1363,19 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="N16" s="5">
+        <v>26</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1355,7 +1387,9 @@
         <v>13</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1366,14 +1400,19 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>26</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="S17" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1381,7 +1420,9 @@
         <v>14</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1392,14 +1433,19 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4">
+        <v>26</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="S18" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1407,7 +1453,9 @@
         <v>15</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1418,14 +1466,19 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4">
+        <v>26</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="R19" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="S19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1433,7 +1486,9 @@
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1444,14 +1499,19 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <v>26</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="R20" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="S20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -1459,7 +1519,9 @@
         <v>17</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1470,14 +1532,19 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4">
+        <v>26</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="R21" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="S21" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -1510,7 +1577,7 @@
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="9">
@@ -1551,7 +1618,7 @@
       </c>
       <c r="N23" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="2"/>
@@ -1567,11 +1634,11 @@
       </c>
       <c r="R23" s="9">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1538</v>
       </c>
       <c r="S23" s="11">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1538</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a7afae5413bb07/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{357B73B7-7A9D-4985-B369-5DF35C54B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08F9DE47-F821-4E7A-8BA2-5F8B33504743}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{357B73B7-7A9D-4985-B369-5DF35C54B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DA8C977-BB50-4B69-89B0-75D9CEE8BACF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>Deepak Pandey</t>
   </si>
   <si>
-    <t xml:space="preserve">Anirudh </t>
-  </si>
-  <si>
     <t>Manish Rawat</t>
   </si>
   <si>
@@ -156,10 +153,13 @@
     <t>Dinesh Sundriyal</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohit </t>
-  </si>
-  <si>
-    <t>Akash</t>
+    <t>Akash Kaushik</t>
+  </si>
+  <si>
+    <t>Anirudh Singh</t>
+  </si>
+  <si>
+    <t>Mohit Gurjar</t>
   </si>
 </sst>
 </file>
@@ -341,6 +341,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,7 +357,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,6 +421,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -746,7 +750,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,54 +777,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -832,20 +836,20 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -1078,7 +1082,7 @@
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="13">
         <v>45915</v>
       </c>
       <c r="E9" s="5"/>
@@ -1119,7 +1123,7 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5"/>
@@ -1312,7 +1316,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1349,7 +1353,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1388,7 +1392,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1421,7 +1425,7 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1454,7 +1458,7 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1487,7 +1491,7 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1520,7 +1524,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a7afae5413bb07/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{357B73B7-7A9D-4985-B369-5DF35C54B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DA8C977-BB50-4B69-89B0-75D9CEE8BACF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{2CD43A04-AB51-4586-81E0-8414E5B3E92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{764B799D-8841-4970-A5B9-27DF1046C2EE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Year 2025</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Birthday</t>
-  </si>
-  <si>
     <t>Amount Due</t>
   </si>
   <si>
@@ -99,13 +96,7 @@
     <t>Outstanding Balance</t>
   </si>
   <si>
-    <t>1st Jun</t>
-  </si>
-  <si>
     <t>Sanjay Rawat</t>
-  </si>
-  <si>
-    <t>4th Jun</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -319,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -341,7 +332,6 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,7 +401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="0"/>
-          <a:ext cx="952500" cy="990600"/>
+          <a:ext cx="952500" cy="977265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -421,10 +411,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,10 +733,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,106 +744,102 @@
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+    <row r="1" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -906,493 +888,472 @@
       <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
-        <v>100</v>
-      </c>
+      <c r="I5" s="5">
+        <v>100</v>
+      </c>
+      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5">
-        <v>26</v>
-      </c>
+      <c r="M5" s="5">
+        <v>26</v>
+      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5">
+        <f>SUM(E5:P5)</f>
+        <v>126</v>
+      </c>
       <c r="R5" s="5">
-        <f>SUM(F5:Q5)</f>
+        <f>Q5-D5</f>
         <v>126</v>
       </c>
-      <c r="S5" s="5">
-        <f>R5-E5</f>
-        <v>126</v>
-      </c>
+      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
-        <v>100</v>
-      </c>
+      <c r="I6" s="5">
+        <v>100</v>
+      </c>
+      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5">
-        <v>26</v>
-      </c>
+      <c r="M6" s="5">
+        <v>26</v>
+      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5">
+        <f t="shared" ref="Q6:Q21" si="0">SUM(E6:P6)</f>
+        <v>126</v>
+      </c>
       <c r="R6" s="5">
-        <f t="shared" ref="R6:R21" si="0">SUM(F6:Q6)</f>
+        <f t="shared" ref="R6:R23" si="1">Q6-D6</f>
         <v>126</v>
       </c>
-      <c r="S6" s="5">
-        <f t="shared" ref="S6:S23" si="1">R6-E6</f>
-        <v>126</v>
-      </c>
+      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
-        <v>100</v>
-      </c>
+      <c r="I7" s="5">
+        <v>100</v>
+      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="R7" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="S7" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
-        <v>100</v>
-      </c>
+      <c r="I8" s="5">
+        <v>100</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5">
-        <v>26</v>
-      </c>
+      <c r="M8" s="5">
+        <v>26</v>
+      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5">
+      <c r="Q8" s="5">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="S8" s="5">
+      <c r="R8" s="5">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13">
-        <v>45915</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <v>100</v>
-      </c>
+      <c r="I9" s="5">
+        <v>100</v>
+      </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5">
-        <v>26</v>
-      </c>
+      <c r="M9" s="5">
+        <v>26</v>
+      </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5">
+      <c r="Q9" s="5">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="S9" s="5">
+      <c r="R9" s="5">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
+      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
-        <v>100</v>
-      </c>
+      <c r="I10" s="5">
+        <v>100</v>
+      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5">
-        <v>26</v>
-      </c>
+      <c r="M10" s="5">
+        <v>26</v>
+      </c>
+      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5">
+      <c r="Q10" s="5">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="S10" s="5">
+      <c r="R10" s="5">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
+      <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5">
-        <v>100</v>
-      </c>
+      <c r="I11" s="5">
+        <v>100</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5">
-        <v>26</v>
-      </c>
+      <c r="M11" s="5">
+        <v>26</v>
+      </c>
+      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5">
+      <c r="Q11" s="5">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="S11" s="5">
+      <c r="R11" s="5">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
+      <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
-        <v>100</v>
-      </c>
+      <c r="I12" s="5">
+        <v>100</v>
+      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5">
-        <v>26</v>
-      </c>
+      <c r="M12" s="5">
+        <v>26</v>
+      </c>
+      <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5">
+      <c r="Q12" s="5">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="S12" s="5">
+      <c r="R12" s="5">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
+      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5">
-        <v>100</v>
-      </c>
+      <c r="I13" s="5">
+        <v>100</v>
+      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="R13" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="S13" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
-        <v>100</v>
-      </c>
+      <c r="I14" s="5">
+        <v>100</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="R14" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="S14" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>11</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
-        <v>100</v>
-      </c>
+      <c r="I15" s="5">
+        <v>100</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="5">
+        <f>SUM(E15:P15)</f>
+        <v>100</v>
+      </c>
       <c r="R15" s="5">
-        <f>SUM(F15:Q15)</f>
-        <v>100</v>
-      </c>
-      <c r="S15" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>12</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5">
-        <v>100</v>
-      </c>
+      <c r="I16" s="5">
+        <v>100</v>
+      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5">
-        <v>26</v>
-      </c>
+      <c r="M16" s="5">
+        <v>26</v>
+      </c>
+      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5">
+      <c r="Q16" s="5">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="S16" s="5">
+      <c r="R16" s="5">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
+      <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>13</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1403,29 +1364,28 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
-        <v>26</v>
-      </c>
+      <c r="M17" s="4">
+        <v>26</v>
+      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="R17" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="S17" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>14</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1436,29 +1396,28 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
-        <v>26</v>
-      </c>
+      <c r="M18" s="4">
+        <v>26</v>
+      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="R18" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="S18" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>15</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1469,29 +1428,28 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4">
-        <v>26</v>
-      </c>
+      <c r="M19" s="4">
+        <v>26</v>
+      </c>
+      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="R19" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="S19" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1502,29 +1460,28 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4">
-        <v>26</v>
-      </c>
+      <c r="M20" s="4">
+        <v>26</v>
+      </c>
+      <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="R20" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="S20" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>17</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1535,23 +1492,22 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4">
-        <v>26</v>
-      </c>
+      <c r="M21" s="4">
+        <v>26</v>
+      </c>
+      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="R21" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="S21" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -1571,21 +1527,23 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="5">
+      <c r="R22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" ref="D23:Q23" si="2">SUM(D5:D22)</f>
+        <v>0</v>
+      </c>
       <c r="E23" s="9">
-        <f t="shared" ref="E23:R23" si="2">SUM(E5:E22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="9">
@@ -1602,11 +1560,11 @@
       </c>
       <c r="I23" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="2"/>
@@ -1618,11 +1576,11 @@
       </c>
       <c r="M23" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="2"/>
@@ -1634,22 +1592,18 @@
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
-        <f t="shared" si="2"/>
         <v>1538</v>
       </c>
-      <c r="S23" s="11">
+      <c r="R23" s="11">
         <f t="shared" si="1"/>
         <v>1538</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
